--- a/module3/Jankowski_CSD310_Module3_Assignment.xlsx
+++ b/module3/Jankowski_CSD310_Module3_Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\csd\csd-310\module3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0487B4F-D2FF-435C-A17E-2C05F39A7E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134EF3A5-D896-4F2A-A724-9AD22A31EE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{267C06A9-EA90-4094-A7C8-5CCD000C5020}"/>
   </bookViews>
